--- a/500all/speech_level/speeches_CHRG-114hhrg95837.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95837.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning.    As I call to order this Oversight and Investigations Subcommittee hearing to examine the growing problem of prescription drug and heroin abuse, allow me to share a few quotes from an article in the New York Times, citing the views of Dr. Hamilton Wright of Ohio. In the article, Dr. Wright is quoted as saying: ``Of all the nations of the world, America consumes the most opium, in one form or another. The habit has this Nation in its grip to an astonishing extent. Our prisons and our hospitals are full of victims of it, it has robbed ten thousand business men and women of sense. The drug habit has spread throughout America until it threatens us with very serious disaster.''    What is striking about these statements is not the dismal picture they paint, but rather, that these remarks were published over 100 years ago in 1911. Back then, of course, we did not have the scientific or government involvement that we have today. Back then, there was no National Office of Drug Control Policy--the ONDCP--and there was no Department of Health and Human Services, no Substance Abuse and Mental Health Services Administration, and there was no National Institute on Drug Abuse. Yet despite all of our science and public health agencies, and despite the billions of federal dollars devoted to fighting the opioid problem, the situation is no better than it was 100 year ago. Indeed, many would say the situation is far worse.    According to the Centers for Disease Control, in just the past 3 years alone, the number of heroin overdose deaths in the United States has tripled. Tripled. And in some parts of the country, such as the Midwest, heroin overdose death rates have increased over 900 percent. Every day 120 people die from a drug overdose. The vast majority of these overdose deaths are due to prescription opioid medications. That is more than 43,000 deaths last year, or the tragic equivalent of one jetliner going down every single day.    In 2009, an estimated 13,000 babies were born in the United States addicted to heroin or prescription opioids. That is about one opioid-addicted baby every hour of the day, every day of the week. Please note that this statistic is from 2009, several years before the CDC announced our country was in the midst of an overdose epidemic and before the current explosion of heroin overdose deaths. The number of babies born addicted to opioids is much worse today. I used to work in a newborn intensive care unit, and I have watched too many tiny infants go through withdrawal symptoms. But seeing only one is enough to break your heart.    Something is desperately wrong with our Nation's response to the opioid epidemic, and it is quite literally a matter of life and death that we get honest answers and not remain misguided in our approach to how we solve this crisis.    Every Member of Congress is seeing the consequence of the federal government's failure because it touches every community and every family across America. My own district in Pennsylvania has seen the terrible consequences of addiction and death from opiate overdoses, and the problem has only gotten worse over the past year. In Westmoreland County, Pennsylvania, the drug overdose death total for 2014 surpassed that of 2013--a record to that point--by an additional death, and during that time, the number of accidental deaths caused by heroin in the county increased by over 30 percent. In 2014, Allegheny County, where Pittsburgh is, had 281 fatal overdoses reported, compared to 278 the previous year, and it is climbing for this year.    No federal agency has a more central role in this ongoing epidemic than the Department of Health and Human Services. HHS and its Substance Abuse and Mental Health Services Administration, otherwise known as SAMHSA, are tasked with leading our Nation's public health response to opioid and heroin abuse and addiction. SAMHSA regulates our country's 1,300 opioid maintenance--formerly known as methadone clinics--and is responsible for certifying the 26,000 physicians who prescribe the semi-synthetic opioid buprenorphine. According to testimony provided by SAMHSA before this subcommittee in April of last year, nearly 1.5 million people were ``treated''--and I put ``treated'' in quotes--with these opioids in 2012. That is a five-fold increase in the last 10 years. Now, I might add, I will not call this treatment. It is addiction maintenance.    Buprenorphine can more safely maintain a person's dependence by reducing the need for illegal opioid abuse, such as heroin, and thereby the risk for overdose. But make no mistake, buprenorphine is a highly potent opioid, which according to SAMHSA, is 20 to 50 times more potent than morphine. So it is worth considering that our national strategy to combat substance abuse is to maintain addiction by either prescribing or administering a heroin-replacement opioid. When you consider research from the National Institute on Drug Abuse documenting that almost everyone who stops taking buprenorphine relapses to illicit opioid use within a matter of weeks, it is deeply concerning thatwe don't have the best solutions for addiction recovery. According to the Drug Enforcement Administration, when police conduct a prescription drug bust, the third most frequently seized drug by law enforcement is buprenorphine--more than methadone, more than morphine, more than codeine. And unlike clinics that administer methadone, there are no requirements for buprenorphine clinics to offer or even discuss non-addictive treatment alternatives with patients, no requirements to develop treatment plans, no requirements to protect the public against it being diverted for illicit use. Meanwhile, the CDC reports that buprenorphine is the most frequently cited prescription drug in poisonings of children, accounting for nearly 30 percent of all opioid-related emergency department visits and 60 percent of emergent hospitalizations among children.    Worse yet, of opioid-addicted babies who start their fragile lives being medically detoxified off of opioids, nearly half of their mothers are on buprenorphine or methadone maintenance in HHS/SAMHSA-regulated or -certified practices.    This is government-supported addiction. It is not moving people to sobriety. We should not just focus on the extraordinary costs of detoxifying babies off of buprenorphine, but also the profound consequences for these babies whose entire experience in the womb and after they are born is dominated by buprenorphine dependence. Further, there are significant concerns about short- and long-term neurodevelopmental impacts of opioid exposure in utero. Why is the government subsidizing this harm?    Despite these problems, HHS and SAMHSA continue to actively and aggressively promote the use of buprenorphine, yet noticeably silent on promoting research and innovative measures with the goal of ending opioid addiction, not simply continuing addiction through drug maintenance programs of methadone. It concerns me that HHS and SAMHSA have no practical guidance on how to get people off of this prescribed opioid when those on buprenorphine maintenance for substance abuse disorders use illicit opioids an average of four times a week.    Now, I recognize this morning that HHS announced new plans and funding to work on this issue, and this committee eagerly awaits to see the details on how that will play out.    Compounding this crisis is the lack of evidence-based treatment to end opioid addiction, not merely replace an illicit drug with a government-sanctioned one. Evidence-based treatment includes decisions based on scientific studies with quantitative data, and is distinguished from those relying on anecdotes and subjective observations.    Only about 10 percent of persons with a substance abuse disorder will get any form of medical care. Of those who are lucky enough to get care, only 10 percent of them will get evidence-based treatment for the disease of addiction. Yet most medical professionals are not sufficiently trained to diagnose or treat the disease of addiction, and most providing addiction care are not medical professionals and are not equipped to provide the full range of effective treatments.    Now, I believe in recovery. I believe in lives being restored and every individual living up to their full God-given potential and doing so drug-free. I desperately want our federal efforts to work in every community and for every family that seeks care for addiction disorders. And I know that working together, at the federal, State, and local level, we will achieve success. But we have to set our eyes on the goal of full recovery, not just addiction maintenance. We can do this, I have no doubt.    We continue our oversight series today by listening to law enforcement and public health officials who are working at the on the front lines to protect our communities and our families in this national epidemic. We are grateful for your service and for taking the time to be with us today.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you very much, Mr. Chairman, for convening this hearing today.    As you noted, the opioid epidemic is nothing short of a public health crisis. In 2013, prescription painkillers were involved in over 16,000 overdose deaths, and heroin was involved in an additional 8,257 deaths. Over 2.1 million Americans live with a prescription opioid addiction while 467,000 Americans are addicted to heroin. These are devastating numbers, and they have been trending upwards for far too long.    These numbers only paint a partial picture of the heavy toll of the epidemic in our society. Throughout this country, countless families and communities have been shattered by opioid abuse, misuse and addiction. It is time that we really truly pursue best practices supported by scientific research that will reverse this problem.    Recent advances in science have shown us that addiction is a disease of the brain. This demands that we approach the problem not only as a public safety issue but also as a public health issue. Yes, we must stop drug smugglers and crack down on pill mills, but we also must work with prescribers to educate them and prevent the over-prescription of opioids for pain management. And most importantly, we must improve our ability to identify and treat people with substance abuse disorders.    In 2013, for example, only 1 in 10 Americans with a substance abuse disorder received any form of treatment. That is just unacceptable, and we should be asking why so few Americans are accessing the treatment they need.    Research indicates that medication-assisted treatment, or MAT, combined with counseling is the most effective way to treat opioid addiction. Studies further demonstrate that MAT reduces the risk of drug overdoses, infectious disease transmission, and engagement in criminal activities.    Despite this track record, in 2013, MATs were available in only 9 percent of substance abuse treatment facilities nationwide. Even more troubling are reports that some treatment facilities that adopt an abstinence-based approach to drug treatment do not allow patients to take MATs while enrolled in their programs. According to experts, a high percentage of opioid addicts in abstinence-based treatment return to opioid abuse within 1 year, and as you said, Mr. Chairman, even within a few weeks. Given the limited success of these programs in promoting long-term recovery in opioid addicts, we must ask some hard questions regarding how we should be spending our limited resources for treatment.    Finally, we know that patients with substance abuse disorders continue to face significant barriers to treatment. For example, right now there is a nationwide shortage of qualified substance abuse providers, particularly people who can prescribe MATs. Recent press reports also suggest that patients face long waiting lists for admission into treatment facilities, and according to the American Society of Addiction Medicine, both State Medicaid programs and private insurers have policies in place that are limiting patients' access to MATs. We need to better understand these barriers and what we can do at the federal level to address them.    There are some reasons for optimism, however. First, the Affordable Care Act has expanded access to substance abuse treatment for millions of Americans. Insurance companies are now required to provide coverage of treatment for substance abuse disorders just as they would for any chronic disease. These policies represent the largest extension of treatment access in a generation, and hopefully they will guide millions into successful recovery.    Second, we do have some sense of what works. Some of our witnesses today who have firsthand knowledge on what strategies are effective to treat and prevent substance abuse will talk about that. They know what has worked in their communities, and we need to have them help us inform the national discussion.    I do want to thank our witnesses today, Mr. Chairman. We have asked all of you to attend this hearing because of the important work that you are doing to raise drug awareness, break down the stigmas long associated with substance abuse disorders, and put people on the path to recovery.    Finally, Mr. Chairman, your continued oversight on this issue gives me reason to be optimistic that this committee can play a role in turning the tide. You have indicated your intention to conduct a series of hearings on this topic, and I am certainly glad to be your partner in this inquiry.    To that end, I suggest that our next hearing focus on state responses to the epidemic. There is significant variation from state to state on treatment quality, access and coverage. Some states are making progress but some are not, and we should hear the best practices. We also need to hear from federal agencies on these same topics.    This committee has an opportunity to make a meaningful difference in addressing the problem, and I am welcoming all of our joint efforts.    And with that, Mr. Chairman, I just want to let the witnesses know, this committee has a bill on the floor right now, so I have to run down and make a statement on the floor. I am leaving us in the capable hands of Mr. Kennedy, and I will be back after my statement. Thank you.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Well, thank you, Mr. Chairman.    Today we continue our important review of the growing epidemic of prescription drug and heroin abuse. The state and local perspective of this growing threat is essential as we evaluate what steps we can take at the federal level to help address the crisis.    Sadly, communities all across the country have been affected by prescription drug and heroin abuse, including my district in southwest Michigan. Devastatingly, heroin overdoses sadly are on the rise due to a combination of high demand and purity that can make the drug even more lethal. There were 13 suspected overdoses in Kalamazoo in the first quarter of 2013, compared to nine in the quarter before that in the earlier year. This unwelcome trend is unfortunately all too familiar as opiate-related overdoses have recently become the number one cause of death in Michigan and nationwide, surpassing motor vehicle crashes, suicide, firearms, and homicide.    I know personally a number of families that have been shattered by that overdose. The reality of heroin overdoses has hit hard in Kalamazoo County the last few years. In 2008, we lost a beautiful little girl named Amy Bousfield, 18 years old. In 2012, Marissa King died at 21. She began using heroin in 2009, despite having lost two friends to the drug. Marissa had an underlying mental illness. She was diagnosed with bipolar disorder, had struggled with depression, and had abused prescription drugs before turning to heroin after graduating from a local high school. These are just a few of the heartbreaking stories that we see all across the country. We are losing about 20,000 people a year from abuse of prescription pain killers or heroin.    As we continue to mourn the loss of all these lives, testimony from you all today will provide us an effective approach making a real difference in fighting this awful abuse. This is a great opportunity for this committee, on a bipartisan basis, to help improve the federal government's response to this epidemic. I am especially pleased to welcome one of today's witnesses, my good friend Vic Fitz, the Cass County Prosecutor and the President of the Prosecuting Attorneys Association of Michigan. He has 31 years of experience in prosecuting drug cases, and will certainly share his insights today as he has done with me over the past number of years and with other fellow prosecutors in Michigan on this issue. I would note that the heroin dealer who sold the heroin that killed Amy Bousfield was caught, convicted, and sentenced to 10 \\1/2\\ to 40 years in prison. We appreciate the work of Vic and his fellow prosecutors who have held dealers accountable to the law, and helped addicts straighten out their lives. I thank him and all of you for your service, and for participating at today's hearing, and I yield the balance of my time to Mr. McKinley.</t>
   </si>
   <si>
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman, and thank you, Mr. Murphy, for holding this hearing today focusing on this growing epidemic. Thank you to the witnesses for coming here to testify.    Prescription drug and heroin abuse has steadily increased. You have heard it throughout the comments that have been made here and throughout our country, and I have seen it firsthand in my home State of West Virginia. Currently, West Virginia is suffering from the highest rate of drug overdose mortality rates in the entire country.    Since coming to Congress in 2010, our office has been working on solutions. We have had roundtable meetings throughout the district with law enforcement, healthcare professionals, educators, and community leaders about how to address this problem. What we have heard is at least three solutions. One is, we need to be focused better on education; secondly, on proactive prevention; and thirdly, resources for our law enforcement to take these drug traffickers off our streets. Therefore, by expanding the High Incident Drug Traffic Area--HIDTA--in West Virginia, it has provided an incredibly effective tool for catching drug offenders and taking them off the streets. This is just one option. I hope to learn more from the rest of this panel today.    Thank you, and I yield back my time.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412543</t>
   </si>
   <si>
-    <t>Joseph P. Kennedy III</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you, Mr. Chairman. Thank you very much to all the witnesses that are here today who have dedicated so much of their time, efforts, energy, and lives to confronting this crisis, either through treatment, community health or through law enforcement. We are grateful for your commitment and all you do to try to address this problem head-on, and I want to thank the chairman of the committee and of the subcommittee as well for calling an important hearing.    There are few people in this country that have been spared the heartbreaking impact of watching a loved one, a neighbor, a friend, a colleague fall victim to opiate addiction. It is an epidemic striking red states and blue states, small towns and big cities, neighborhoods rich and poor. The breadth and depth of this epidemic is truly staggering, and there is no silver bullet. But perhaps there is a silver lining, which you have heard already this morning. It translates into strong bipartisan consensus here in Washington that we have to do something about it.    Back home in the 4th District of Massachusetts, there is not an event that I go to where this topic does not come up. Communities like Fall River in Taunton have been particularly hard-hit. Local leaders are working tirelessly to respond.    Across the Commonwealth, we confront a growing epidemic. In 2013, there were 978 opioid-related deaths in Massachusetts, according to the Department of Public Health, which has yet to release 2014 figures. In fiscal year 2014, there were more than 104,000 admissions to State-contracted substance abuse treatment programs in Massachusetts, more than 53 percent of which were for heroin addiction.    Despite these numbers, I repeatedly hear from providers in my district that there is a profound lack of resources for the prevention and treatment of substance abuse, especially when it comes to opioid addiction. Insufficient wraparound services, low reimbursement rates, and bureaucratic barriers to treatment harm patients and undermine our efforts to reverse addiction trends.    According to CPAC, the New England Comparative Effectiveness Public Advisory Council, 133,000 people in New England abuse or are addicted to opiates. Of those, 70 percent meet the criteria for treatment but cannot access it. We know that this is a problem with no silver bullet solution. We are working to chip away at it, and I am proud to have joined Representative Whitfield this morning in reintroducing legislation to reauthorize the NASPER program, the National All Schedules Prescription Electronic Reporting program. The program is designed to provide grants to states for the establishment, implementation, and improvement of prescription drug monitoring programs. We know that timely access to patient records and high standards of interoperability are successful with PDMPs, and this legislation will give providers the tools that they need to identify and treat at-risk behavior.    To those of you who are here today to testify, you are on the frontlines of this epidemic. You are fighting every single day for our communities, our neighborhoods and our backyards. This gives you unparalleled insight into what works and to what doesn't. We are here today to learn from you, to take the lessons that you have learned from your cities and towns, and try to transport them across the entire country.    Let me just say I first became aware of the scope of this addiction and the scope of this problem as a prosecutor in local communities in Massachusetts, finding young men and women that were breaking into 15 cars in a night, five, six homes over the course of the weekend, undercover agents that were putting themselves at great risk to try to keep our communities safe. So for those of you in law enforcement that are here, I look forward to hearing your ideas. From those folks back home that I have talked to, they have profound recognition that we will not arrest our way out of this problem, but very much look forward to hearing your solutions as to what we can do going forward, and I yield back my time.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>412550</t>
   </si>
   <si>
-    <t>Richard Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman.    I am pleased today to introduce Fred Wells Brason, a former hospice chaplain, now President and CEO of Project Lazarus from my home State of North Carolina. Mr. Brason has had tremendous success in saving lives from opioid overdoses, and I look forward to hearing his testimony and learning from his great work.</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Brason</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brason. Brason.</t>
   </si>
   <si>
@@ -142,18 +121,12 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman.    I am glad to introduce Dr. Sarah Melton. Dr. Melton chairs OneCare of Southwest Virginia, a consortium of substance abuse coalitions attempting to turn the tide against substance abuse. She is an Associate Professor of Pharmacy at ETSU and most recently was appointed by Governor Terry McAuliffe to the Virginia Task Force on Prescription Drug and Heroin Abuse, an idea first proposed to the Governor by myself and others in the Virginia Congressional Delegation.    Dr. Melton has a long history of working to address the substance abuse problems in southwest Virginia. She was instrumental in bringing Project Lazarus to Virginia, and she is also working on the naloxone issues in southwest Virginia and in Virginia. I want to thank you, Dr. Melton, for being here today and sharing your experience with our committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Dr. Melton, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Melton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Melton. Thank you, Mr. Chairman, and thank you, Congressman Griffith and the other members of the subcommittee.    During my testimony, I am going to address key areas related to state and local initiatives that are making an impact, and I will also address key areas where I feel the federal government can assist in these areas.    The first key area I will address is education of prescribers. As you are all aware, students and residents in healthcare professions have limited exposure to curricula in identifying and treating substance use disorders and appropriate prescribing and dispensing of controlled substances for chronic pain, but in Virginia, we are working together to bring leaders from all healthcare schools together to assure that our prescribers and dispensers of controlled substances have received an adequate education on addiction and the treatment of chronic pain.    Overall, more funding is needed form the federal level to provide expanded graduate medical education opportunities for training in the identification, referral, and treatment of substance use disorders. As changes in federal funding allocated for graduate medical education are currently being discussed, it is an opportune time to assess how funding can best address training in addiction medicine.    Tennessee has a mandated annual continuing education requirement for prescribers. Virginia, however, does not have that. OneCare of Southwest Virginia has joined with the Medical Society of Virginia and the Virginia Department of Health to provide no-cost continuing medical education to all healthcare prescribers as well as dispensers. We have been able to educate over 2,000 prescribers and dispensers in the past 3 years. We are currently evaluating how that continuing education has changed prescribing habits, attitudes, and registration to the prescription drug monitoring program as well as other outcomes.    I wanted you to know that in January, a letter was sent directly from Secretary of Health and Human Services, Dr. Bill Hazel, to all prescribers in Virginia. The letter specifically addressed new legislation that requires prescribers to be monitored, to be registered in the prescription drug monitoring program, but it also talked about how to use the PMP programs in clinical practice. I am happy to report as a result of that letter, the prescription drug monitoring program registrations dramatically increased, and we are seeing a steady increase in inquiries to the PMP in the clinical setting. We are going to be sending a letter to all pharmacists in the Commonwealth in the next month.    With regard to access to naloxone, both Virginia and Tennessee have recently passed legislation that will provide wide access to this lifesaving medication, and OneCare has worked extensively with the Virginia Department of Behavioral Health and Developmental Services to train people across the Commonwealth through Project Revive. Last summer, Senator Tim Kaine attended one of those trainings in Lebanon, Virginia, and as a result of his training, he has introduced legislation through the Opioid Overdose Reduction Act to offer Good Samaritan protection for first responders. It is my hope that Congress will pass this legislation so that we have a consistent Good Samaritan protection across the Nation.    One barrier we are finding with naloxone, though, is the cost. It is not mandated by insurance companies to cover this medication, and it really should be.    With regard to treatment, medication-assisted treatments with methadone, buprenorphine, and naltrexone have become an essential component of a comprehensive treatment plan for opioid use disorders. The issue that we have now is that we need a modernization of federal law to further expand access to these lifesaving medications but we need specific best practice requirements and recommendations for prescribers and insurers such as Medicaid and Medicare to make sure that certain patients are receiving comprehensive care by competently trained healthcare providers. Also critical is reimbursement for parts of these programs such as urine drug screens and the necessary psychotherapy that accompanies the medication treatment.    With regard to monitoring with the prescription drug monitoring program, both Virginia and Tennessee are members of the National Association of Boards of Pharmacy Interconnect program, and I am very happy to find that the bill that will find NASPER is being proposed because the funding for that allocation will help all States be able to participate in a national prescription drug monitoring program. There is one concern I have, though. You may or may not know, a concern that we encounter daily in clinical practice is that methadone clinics are not required to report methadone dispensing to the prescription drug monitoring programs. This is a very serious situation because if these patients do not disclose this to their primary care providers and they don't know it when they access the prescription drug monitoring program, we often see other opioids being prescribed, benzodiazepines that can lead to death. So that is an issue of concern. And in contrast, buprenorphine, of course, is reported to the State prescription drug monitoring programs that allow us more monitoring for safety and appropriate use.    Thank you for the opportunity to testify and for your ongoing commitment to this epidemic across the United States.</t>
   </si>
   <si>
@@ -166,9 +139,6 @@
     <t xml:space="preserve">    Mr. Murphy. Doctor, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Maxwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Maxwell. Thank you Congressman McKinley and thank you, Mr. Chairman for the opportunity. It is pretty humbling to be asked to speak with such an august group, but hopefully this testimony will help us in your quest to quell this rising tide that is a scourge in our Nation.    I have had the opportunity to take care of these babies that are suffering from neonatal abstinence syndrome, and so at the time back in 2006 when the West Virginia Perinatal Partnership was established, their mission was to look at areas that we could improve the health of mothers and babies in West Virginia, and at the time when all of the providers got together in a room, we decided that substance abuse in pregnancy or substance usage in pregnancy was an issue that we had to address, mainly because at the time, these babies that had neonatal abstinence syndrome were taking up most of the beds in the ICU, and level III institutions could not accept sick, small, premature babies from outlying institutions. Some of them had to be transported out of the State.    So at the time, we really were not understanding the whole impact of what was happening in the State. So I missed a meeting and became chairman of the substance abuse committee, I have to say, and I was given that responsibility, and over the ensuing 3 years or so, we tried to figure out what was the prevalence of this problem in our State, and so we embarked upon the umbilical cord tissue study, which looked at eight hospitals through the State, scattered throughout the State. We collected as many umbilical cord tissue samples as we could as sort of a pilot over a month-long period. We ended up collecting almost 800 samples, and then we realized that one in five of those samples was positive for a substance, many of them being polydrug abusers, which included opiates, marijuana, and so forth.    So this was obviously a daunting problem, and so at the Perinatal Partnership we decided to try to be proactive rather than reactive, and by that, I mean we wanted to see if we could reduce the numbers of babies with neonatal abstinence or at least reduce the severity of the neonatal abstinence syndrome at the end of the pregnancy. So we embarked upon a project that we called the Drug-Free Mothers and Babies Project whereby we sent out requests for proposals, got four or five in, and now have established four or five programs that are in the process. The aspects of this project are, one, we screen all women at the first antenatal visit, whether we do it using biological specimens like urine or we do it with screening tools such as what we call SBIRT screening, brief intervention, referral, and treatment. And then once we have identified a woman, a pregnant woman, who is using an opiate specifically, we then refer them to an addiction counselor and behavioral medicine, and try to follow them throughout that pregnancy with a goal to reducing or first of all converting the substance they are using to another drug that we can probably wean throughout the pregnancy with a goal to reducing the amount of drug that the baby is exposed to during the pregnancy and ultimately get them either off the drug or on a very small dose so that the severity of neonatal abstinence would be that much reduced.    Well, one of those programs has been operating now for about 2 years, and we have had great success with one of those programs, reducing their incidence of 19 percent of positive umbilical cord tissue samples at birth to 8 percent, which means that the cost associated with neonatal abstinence has been significantly reduced. We have also been following these ladies who have been in the program for up to a year. We don't have 2 years' worth of follow-up yet, but the goal is to follow them at home for the first 2 years after delivery and reinforce that behavioral modification that went on throughout the pregnancy.    The ultimate goal if this is a successful program is to develop what we call a pay-for-success program, whereby we can now try to save the government money in the long run by having an investor fund these programs, have an independent entity such as the Partnership administer the program with an independent audit, and at the end hopefully show that we have reduced the cost and ultimately improved the lives of these people that are ravaged by this terrible disease.    Thank you for the opportunity, Mr. Chairman.</t>
   </si>
   <si>
@@ -178,18 +148,12 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    Rachelle Gardner is here today representing the Hope Academy in Indianapolis, Indiana, in my district. Rachelle is the Chief Operating Officer and one of the founders of Hope Academy, a tuition-free Indiana public charter high school for students in recovery from drug and alcohol addiction.    As 80 percent of students relapse from recovery upon returning to their own high school, Hope Academy is essential in combating the staggering statistic. Hope Academy is the only recovery high school in Indiana and one of only 35 within the United States. Rachelle also serves as the Director of Adolescent Services at Fairbanks Drug and Alcohol Treatment Center, and she is the Board Chair for the Association of Recovery Hospitals. And so I want to welcome Ms. Gardner and the other panelists today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    You are recognized for 5 minutes. Thank you.</t>
   </si>
   <si>
-    <t>Gardner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gardner. Thank you, Mr. Chairman and Congresswoman Brooks and members of the committee for allowing me to speak to you today. My name is Rachelle Gardner, and I have the privilege of serving as the Director of Adolescent Services for Fairbanks, an addiction treatment provider, and the Chief Operating Officer of Hope Academy, a recovery high school, both located in Indianapolis, Indiana.    Hope Academy is the only recovery high school in Indiana and one of 35 recovery schools in the United States. For the last 4 years, I have served as the Chair of Board of Directors for the Association of Recovery Schools, also known as ARS, and the purpose of ARS is to support and inspire recovery schools around the country. My entire career has been dedicated to working with youth who are struggling with substance abuse.    The abuse of opiates continues to rise in central Indiana. According to the Indiana University Center for Health Policy, the number of adolescents receiving treatment for opiate dependence has risen 9 percent over the last 5 years. One of the most staggering statistics is that since 1999, the number of opiate-related deaths has quadrupled in Indiana. Over the last 18 months, Fairbanks has admitted 360 young people ages 15 to 23 who indicated opiates as their primary drug of choice.    Heroin holds a firm grip on its victims and the withdrawal experience from this drug is extremely painful and challenging to overcome. Another danger of heroin is the significant potential for a fatal overdose. According to the Indiana State Department of Health, in 2011 there were 63 heroin-related deaths in Indiana and in 2013 that number increased to 152.    All of the programs and services at Fairbanks for adults and adolescents are driven by our mission to focus on recovery. Recovery from alcohol and drug addiction is challenging for anyone, but especially for our young people who have yet to develop the coping skills necessary to work a successful recovery program.    In the United States, 80 percent of students relapse from recovery upon returning to their high school following primary treatment for substance abuse. Fairbanks was seeing this same trend and in response, opened Hope Academy in 2006. Hope Academy is a public charter school sponsored by the Mayor of Indianapolis. We serve students in grades 9 through 12 who are seeking a safe, sober, and supportive environment. We are committed to small class sizes with highly qualified teachers who are well trained to educate and support students in recovery from drug and alcohol addiction. Most of our students struggle with co-occurring behavioral and mental health issues as well, yet because of the expertise of our staff, we are able to address these issues.    The key to a successful recovery program is changing the people, places, and things in your life. Sending a child back to their former school puts them in the environment that may have led to their drug and alcohol use. Hope Academy provides these students with an environment that contributes to academic success, personal growth, and life-long recovery. Our students' success is measured in growth. We define growth in many ways: the number of days they remain abstinent from drugs and alcohol, their ability to obtain credits and graduate, repairing relationships with families and friends, and developing much-needed life skills.    Over the last 9 years we have served more than 500 students at Hope Academy. Some of these students felt strong enough in their recovery to successfully transition back to their home schools and graduate. Yet over 100 students chose to stay and are now alumni of Hope Academy. Many have pursued postsecondary education or advanced vocational training with the goal of joining the workforce and contributing positively to their communities.    Academic achievement and recovery success are our primary goals at Hope Academy. We have partnered with Indiana Wesleyan University's Addictions Counseling Program to produce a Web site for the purpose of sharing research outcomes with other recovery schools around the country. One recent study produced data that strongly suggests students attending Hope Academy were overall persistent in their education, which in turn reduced their behavioral and mental health issues while increasing the strength of their recoveries.    Through my work with the Association of Recovery Schools, I have become quite familiar with the national advocacy efforts surrounding the Comprehensive Addiction and Recovery Act of 2015, or CARA. Last year, Senator Whitehouse of Rhode Island and Senator Portman of Ohio submitted this critical piece of federal legislation. If passed, this would authorize increased funding for treatment, recovery, and criminal justice systems while aiming to reduce opioid misuse and overdose deaths. In section 303 of CARA, the National Youth Recovery Initiative is of special importance to the various organizations I represent because of the attention it pays to adolescent treatment and recovery resources. Each of you can help us get the resources needed to make a lasting impact on the opiate crisis at a national level by first empowering our local communities. This passage of legislation is critical to helping our youth, our families and our communities who are fighting this epidemic on a daily basis.    The disease of addiction has permeated our society for hundreds of years. In my 25 years of experience, I have never, ever seen a class of drugs take hold of young people like I have with opiates. They are highly addictive and too often lead to premature death, which unfortunately I have seen way too many times. Opiates are claiming the lives of our country's future leaders.    My hope in testifying today is that together we can not only provide young people the access to treatment and recovery supports they need but also to restore their hope for a positive future.    Thank you for the opportunity to be here today and I look forward to answering any of your questions.</t>
   </si>
   <si>
@@ -199,9 +163,6 @@
     <t>400646</t>
   </si>
   <si>
-    <t>Michael G. Fitzpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fitz. Chairman Murphy and esteemed members of the Oversight and Investigations Subcommittee, as indicated, my name is Victor Fitz and I am the prosecutor in Cass County, Michigan. Cass County is a medium-sized county in lower Michigan abutting South Bend on the Indiana border. We are equidistant from Chicago and Detroit, 2 hours to the west of Chicago, 2 hours to the east is Detroit. I want to thank you for the opportunity to be here today both on behalf of the Cass County Prosecutor's Office as well as the Prosecuting Attorneys Association of Michigan, particularly to address this very serious and horrifying epidemic that we are facing in Michigan as well as the Nation as a whole.    Michigan, like the rest of our States, is extremely diverse from county to county, but we are all similar in one way, Michigan from our Upper Peninsula to the shores of Lake Superior right down to our urban areas of Detroit, Saginaw, Muskegon, Flint and the like, and that is that we are dealing with the devastating problem of prescription drug abuse and heroin abuse. It is devastating all of our communities. It is not just an inner city problem. It is not just a rural problem. It is there and everywhere in between.    All people are vulnerable to abusing these drugs because they are so very addictive. This abuse can start innocently, for instance, a teenager who becomes addicted to OxyContin after a serious athletic injury or someone perhaps recreationally who starts using less addictive drugs and graduates their drug use to heroin. It takes only one time to become addicted to heroin, and that one time is ruining futures, it is ruining families, and it is ruining lives.    The opiates found in prescription pills are the addictive ingredient in heroin, and that is why users of prescription drugs eventually seem to turn to heroin. It is also simple economics. As we have found in Michigan as well as other parts of the Nation, it is actually cheaper to use heroin than prescription drugs on many occasions. We found in Michigan that heroin is actually cheaper in many areas than even marijuana. It can be smoked, it can be snorted, and it can be injected. It is quick and it is easy.    Statistics in the State of Michigan indicate that in the year 2001, there were 271 heroin overdose deaths in our State--I am sorry. That would have been the year 2001 and 2002, a 2-year period. Fast-forward to 2011. That number quadrupled. For one year, the year 2011 had 728 heroin deaths.    I know the congressional representative from Colorado spoke earlier about the 8,000 heroin deaths in the United States, and allow me just for a moment to personalize that from a prosecutor's perspective, from a law enforcement perspective. We had about 2 years ago in Cass County and Bering County in southwest Michigan, our two counties, we had a heroin death that occurred, or suspected heroin death. In Michigan we now have a law that indicates that if you deliver heroin or any drug and that causes the death of that person, it is the equivalent of a second-degree murder charge. Unfortunately, because of the newness of this statute, law enforcement not having protocols, did not seize upon the opportunity to investigate in that fashion initially. So as the investigation did take forward once my office became aware of it by the exhumation of the body, which I can tell you was something that was quite traumatic to the victims of the teen who had been killed from suspected drug activity. While that investigation was going on, in an effort to show that the death came from the use of heroin and other drugs that were supplied, this individual was still out on bond and he again delivered to another person, who also died from a heroin overdose. I can tell you that the pain and the agony is palpable for the victims and for those families.    On Monday of this week, I was talking to another family of a homicide situation, didn't happen to be drugs, but I can tell you when it is a violent death, when it is a death from a drug overdose, the pain never leaves the family. Again, these are real. The number 8,000, as mentioned earlier, every one of those is a tragedy for the family and for the community and for the friends.    We are also seeing pre-teenagers abusing prescription drugs and heroin. It is a terrifying tragedy. Anything that we can do to battle this epidemic needs to be done. The Michigan Department of Community Mental Health in my State has developed a work group to design a strategic plan to combat this type of drug abuse. The plan, which is in place through the year 2015 through September 30, 2015, generally recommends the following: increasing multisystem collaboration across agencies, broadening statewide media messages, increasing training for physicians regarding drug abuse for education in schools, and increased access to databases regarding controlled substances for health professionals and law enforcement. In my written testimony, I provide some other potential options in that regard. Anything we can do to combine strategies and improve operations to get our citizens help and to put an end to what is deteriorating lives should be done.    If I could have just one moment, I want to mention very briefly our prosecutor from Wayne County in the Detroit area. Kim Worthy asked me this morning to just pass on a couple things very quickly that again this is not just a rural issue, it is also an urban issue, and they have excessive pill mills, violent crime, robbing of pharmaceutical vehicles going through their neighborhoods, murders occurring from these situations, and she again emphasizes we need to attack it on both the supply and the demand end.    Thank you very much.</t>
   </si>
   <si>
@@ -211,27 +172,18 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    It is a very great privilege I have to introduce not just Corporal Mike Griffin but a friend of mine. Mike and I used to meet just about every Friday morning to have breakfast, and in his words, he says just to help me stay grounded.    Mike has worked with the Tulsa Police Department for 17 years and spent 12 of those years in an undercover capacity conducting drug investigations. For the past 10 years, he's been a supervisor within the department's narcotics unit. Previously, Corporal Griffin was with a special agent with the Bureau of Alcohol, Tobacco, and Firearms. He has also served as a member of the Oklahoma Army National Guard. Mike, thank you for being here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Griffin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffin. Chairman Murphy, Ranking Member DeGette, and members of the committee, on behalf of Chief Chuck Jordan and the Tulsa Police Department, thank you for the opportunity to discuss prescription opioid abuse, heroin abuse, and heroin trafficking.    Although heroin abuse and trafficking in Tulsa lags far behind the abuse and tracking of methamphetamine, heroin is trafficked into Tulsa in the same manner as methamphetamine and cocaine, and its abuse leads to similar related criminal activity ranging from petty larceny to armed robbery and even murder.    Narcotics investigators within the Tulsa Police Department know that a large majority of individuals currently addicted to heroin began their drug abuse by abusing prescription drugs. The Tulsa Police Department currently has 751 sworn police officers. TPD believes the focus of drug investigations should be on those individuals who are responsible for trafficking drugs into and through our community rather than on those individuals who are merely addicted to drugs. This is because of our belief that resources are best utilized at the source of the problem rather than on the symptoms of a problem. With that goal in mind, of the 751 sworn officers working for TPD, one investigator is assigned to investigate prescription drug cases within the city. Our lone prescription drug investigator spent the last 20 years investigating prescription drug cases. He believes that Oklahoma has one of the best prescription monitoring programs in the United States. Oklahoma's PMP is real time and allows doctors and pharmacists to quickly access an individual's prescription drug history to evaluate if they are possibly doctor-shopping to gain access to prescription drugs.    If a person gets addicted to opioids, it is not long before they realize that obtaining prescription drugs are harder to access due to Oklahoma's PMP and more expensive than heroin. Because these individuals already are addicted to opioids, the transition to heroin is easier and cheaper.    Heroin trafficking in Tulsa is operated by Mexican drug trafficking organizations. Similar to other drug investigations conducted at the local or state level, the individuals most often arrested and prosecuted are the local dealers and operation leaders. However, the individual profiting most from the illegal distribution of heroin resides in Mexico and is usually beyond prosecution at the state level.    Additionally, and still consistent with other drug investigations, when the individuals at the local or state level are arrested, Mexican DTO simply replaces those individuals with other low-level people within the organization. Therefore, the drug-trafficking organization is able to continue distributing drugs within a community almost uninterrupted.    Data confirms that drug abuse not only provides a demand for drugs to be trafficked into and throughout the United States but also that drug abuse and distribution leads to other crimes occurring in a community. An approach targeting drug trafficking without taking into account a need to prevent drugs from even entering the United States is shortsighted. Prior efforts by law enforcement agencies and state legislators to prevent drug crimes and crimes that occur because of drug dependence and distribution have shown to be successful. For example, reducing the availability of pseudoephedrine has shown to reduce the number of meth labs operating in Oklahoma and other States with similar legislation. This legislation has not only reduced the number of meth labs operating within a state but is also shown to significantly lower associated criminal activity. According to the FBI, no other country in the world has a greater impact on the drug situation in the United States than does Mexico. The FBI states that each of the four major drugs of abuse are either produced in or transported through Mexico before reaching the United States.    Mexican drug-trafficking organizations use numerous methods to smuggle drugs into our country to include aircraft, horses and mules, tunnels, vehicles, and even people walking across the border. Data provided by the DEA shows that the supply of heroin coming from Mexico has increased over the past 5 years and that part of the increase in heroin seizures may be due to the decrease in U.S. demand for Mexican marijuana, which has led Mexican drug farmers to increasingly plant opium poppies in lieu of marijuana.    It is clear that prescription opioid abuse and the related heroin abuse are issues that affect communities across the United States. Without a comprehensive approach to these issues, many people across the county will continue to be affected by these drugs.    The Tulsa Police Department recommends a continuation of the comprehensive approach to drug trafficking currently in place, which relies on coordination among law enforcement agencies, community-oriented policing, intelligence and information sharing, and improved technology. The Tulsa Police Department also encourages additional federal efforts be made to prevent drugs of all kinds from crossing our international borders and finding their way into communities across the United States.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Corporal. I appreciate your testimony.    Last but not least is Dr. Banta-Green, Senior Research Scientist at the Alcohol and Drug Abuse Institute at the University of Washington in Seattle.    Doctor, you may now give a 5-minute summary of your written statement.</t>
   </si>
   <si>
-    <t>Banta-Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Banta-Green. Good morning, Chairman Murphy and members of the committee. I am honored to speak to you today about how we can improve the health of our communities as they struggle with how to manage stress, pain, and addiction in a society and a healthcare system that has historically valued and incentivized quick fixes over real health and wellness. We face big challenges but we do know what needs to be done.    I am a Senior Research scientist at the Alcohol and Drug Abuse Institute at the University of Washington, where I am also Affiliate Faculty in the School of Public Health and the Harborview Injury Prevention and Research Center. My current work includes leading a study of an intervention to prevent opioid overdoses among heroin and pharmaceutical opioid users that is funded by the National Institutes of Health. I have a project analyzing prescription monitoring program data and developing interventions with those data to improve health for those taking controlled substances. This is funded by the Bureau of Justice Assistance with an award to our State Department of Health; and I am currently running the Center for Opioid Safety Education which supports communities across Washington State so that they can respond to the overwhelming impacts of opioid abuse and overdose in their communities. That funding is from the SAMHSA block grant to our state substance abuse agency.    As a public health researcher, I think in terms of primary prevention--preventing a problem from starting; secondary prevention--intervening in a problem to prevent it from getting worse; and tertiary prevention--to prevent death and serious harm.    Given that our communities are in crisis, let us start with preventing death and serious harm. Overdoses can be prevented and most can be reversed before they become fatal if people know how to recognize an overdose and how to respond. Overdoses are a crisis of breathing. 911 needs to be called. An antidote, naloxone, needs to be administered, rescue breathing needs to be initiated and the overdose victim needs to be monitored. Naloxone is a proven, safe medication yet far too few people who need it even know about it, can get it easily or can afford it. Overdose education on naloxone can be provided in a doctor's office, by a pharmacist, at jails or via community-based health education programs such as syringe exchanges. Those at highest risk for overdose are heroin users. Syringe exchanges have the staffing expertise and trusting relationships with our loved ones who use heroin that are necessary to provide lifesaving services.    At the same time, far more people are using pharmaceutical opioids. About 3 percent of adults use opioids chronically for pain. They also need overdose education and take-home naloxone.    Fatal overdose prevention is a necessary first step, but it is a short-term emergency response. Given that opioid addiction leads to changes in the brain and that addiction is a chronic and relapsing condition, it needs to be treated as a chronic medical condition. We are fortunate to have medications to support opioid addiction recovery. Methadone and buprenorphine have been consistently shown in research to save lives and be cost efficient. However, access is still limited by regulatory, geographic, and financial barriers.    Switching to those using opioids for chronic pain, realistic expectations about pain relief need to be discussed, including the fact that long-term opioid use may not lead to good pain control and in fact may reduce functioning. Washington State has led the nation by implementing chronic pain management guidelines in 2007 which have subsequently been codified in State law. Key points of these guidelines include: a dosing threshold trigger for consultation with a pain specialist; patient evaluation elements; periodic review of a patient's course of treatment; encouraging prescriber education on the safe and effective uses of opioids; and the use of medication-assisted treatment if a person is not successfully tapered off of opioids and has an opioid use disorder.    So, how do we prevent opioid addiction in the first place? Given that the majority of young adult heroin users now report they were first hooked on pharmaceutical opioids, it is clear that addressing inappropriate initiation is essential. The decision to begin prescribing opioids for minor injuries and pain needs to be carefully considered as does the total quantity dispensed if they are prescribed. Opioids in the home need to be carefully monitored and immediately disposed of when no longer needed. Parents need to know how to talk with their kids about medication safety as well as how to manage stress and pain without medications, drugs, or alcohol.    To conclude, we can keep people alive, we can treat harms related to opioid use and we can prevent misuse, but, given the potential harms of improper care for those with opioid use problems, we need to take a strategic approach based upon the fact that pharmaceutical opioids can be used interchangeably with heroin and we need to work on prevention and intervention simultaneously.    Thank you very much.</t>
   </si>
   <si>
@@ -419,9 +371,6 @@
   </si>
   <si>
     <t>412319</t>
-  </si>
-  <si>
-    <t>Paul Tonko</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair, and welcome to the panelists. Thank you for bringing your intellect and your passion to the table. It is most helpful.    In October of last year, the Atlantic magazine published an article titled ``The New Heroin Epidemic,'' which looked at a number of challenges facing addicts in West Virginia. I would like to enter this article into the record, Mr. Chair.</t>
@@ -1048,11 +997,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1074,11 +1021,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1098,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1126,11 +1069,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1150,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1176,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1204,11 +1141,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1228,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1256,11 +1189,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1282,11 +1213,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1306,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1334,11 +1261,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1358,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1386,11 +1309,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1410,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1438,11 +1357,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1462,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1490,11 +1405,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1514,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1542,11 +1453,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1566,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1594,11 +1501,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1618,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1646,11 +1549,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1670,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" t="s">
-        <v>54</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1698,11 +1597,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1722,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1750,11 +1645,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1774,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1802,11 +1693,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1826,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1854,11 +1741,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1878,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>68</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1906,11 +1789,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1930,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1958,11 +1837,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1982,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2010,11 +1885,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2034,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2062,11 +1933,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2086,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2114,11 +1981,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2138,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2166,11 +2029,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2190,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2218,11 +2077,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2242,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2270,11 +2125,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2294,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2322,11 +2173,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2346,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2374,11 +2221,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2398,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2424,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2450,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2476,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2502,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2528,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2554,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2580,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2606,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2632,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2658,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2684,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2710,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2736,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2762,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2788,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2814,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2840,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2866,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2892,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2918,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2944,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2970,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2996,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3022,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3048,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3074,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3100,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3126,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3152,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3178,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3204,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3230,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3256,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
-      </c>
-      <c r="G87" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3282,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3308,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3334,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3360,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
-      </c>
-      <c r="G91" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3386,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3412,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3438,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3466,11 +3229,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3490,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3516,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3542,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3570,11 +3325,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3594,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>134</v>
-      </c>
-      <c r="G100" t="s">
-        <v>135</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3622,11 +3373,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3646,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
-      </c>
-      <c r="G102" t="s">
-        <v>135</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3672,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
-      </c>
-      <c r="G103" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3698,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
-      </c>
-      <c r="G104" t="s">
-        <v>135</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3724,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3750,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" t="s">
-        <v>135</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3776,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G107" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3802,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" t="s">
-        <v>135</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3830,11 +3565,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3854,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3880,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
-      </c>
-      <c r="G111" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3906,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
-      </c>
-      <c r="G112" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3932,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
-      </c>
-      <c r="G113" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3958,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
-      </c>
-      <c r="G114" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3984,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4010,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
-      </c>
-      <c r="G116" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4036,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
-      </c>
-      <c r="G117" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4062,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
-      </c>
-      <c r="G118" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4088,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
-      </c>
-      <c r="G119" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4114,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
-      </c>
-      <c r="G120" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4140,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
-      </c>
-      <c r="G121" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4166,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
-      </c>
-      <c r="G122" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4192,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
-      </c>
-      <c r="G123" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4218,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
-      </c>
-      <c r="G124" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4246,11 +3949,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4272,11 +3973,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4296,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>64</v>
-      </c>
-      <c r="G127" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4322,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
-      </c>
-      <c r="G128" t="s">
-        <v>68</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4348,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>64</v>
-      </c>
-      <c r="G129" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4374,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" t="s">
-        <v>68</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4400,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>64</v>
-      </c>
-      <c r="G131" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4426,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
-      </c>
-      <c r="G132" t="s">
-        <v>68</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4452,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>64</v>
-      </c>
-      <c r="G133" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4478,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>60</v>
-      </c>
-      <c r="G134" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4504,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>64</v>
-      </c>
-      <c r="G135" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4530,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136" t="s">
-        <v>68</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4556,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>60</v>
-      </c>
-      <c r="G137" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4582,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>64</v>
-      </c>
-      <c r="G138" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4608,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>60</v>
-      </c>
-      <c r="G139" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4634,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>64</v>
-      </c>
-      <c r="G140" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4662,11 +4333,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4686,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>53</v>
-      </c>
-      <c r="G142" t="s">
-        <v>54</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4712,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
-      </c>
-      <c r="G143" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4738,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>53</v>
-      </c>
-      <c r="G144" t="s">
-        <v>54</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4764,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
-      </c>
-      <c r="G145" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4790,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>53</v>
-      </c>
-      <c r="G146" t="s">
-        <v>54</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4816,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>60</v>
-      </c>
-      <c r="G147" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4842,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>53</v>
-      </c>
-      <c r="G148" t="s">
-        <v>54</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4870,11 +4525,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4894,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4920,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>60</v>
-      </c>
-      <c r="G151" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4946,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4972,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>60</v>
-      </c>
-      <c r="G153" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4998,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5024,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>60</v>
-      </c>
-      <c r="G155" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5050,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5076,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>60</v>
-      </c>
-      <c r="G157" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5102,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5128,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>60</v>
-      </c>
-      <c r="G159" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5154,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5180,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
-      </c>
-      <c r="G161" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5206,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5232,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
-      </c>
-      <c r="G163" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5258,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5284,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
-      </c>
-      <c r="G165" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5310,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5338,11 +4957,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5362,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5390,11 +5005,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5414,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
-      </c>
-      <c r="G170" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5442,11 +5053,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5466,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
-      </c>
-      <c r="G172" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5494,11 +5101,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5518,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
-      </c>
-      <c r="G174" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5546,11 +5149,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5570,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
-      </c>
-      <c r="G176" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5598,11 +5197,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95837.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95837.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning.    As I call to order this Oversight and Investigations Subcommittee hearing to examine the growing problem of prescription drug and heroin abuse, allow me to share a few quotes from an article in the New York Times, citing the views of Dr. Hamilton Wright of Ohio. In the article, Dr. Wright is quoted as saying: ``Of all the nations of the world, America consumes the most opium, in one form or another. The habit has this Nation in its grip to an astonishing extent. Our prisons and our hospitals are full of victims of it, it has robbed ten thousand business men and women of sense. The drug habit has spread throughout America until it threatens us with very serious disaster.''    What is striking about these statements is not the dismal picture they paint, but rather, that these remarks were published over 100 years ago in 1911. Back then, of course, we did not have the scientific or government involvement that we have today. Back then, there was no National Office of Drug Control Policy--the ONDCP--and there was no Department of Health and Human Services, no Substance Abuse and Mental Health Services Administration, and there was no National Institute on Drug Abuse. Yet despite all of our science and public health agencies, and despite the billions of federal dollars devoted to fighting the opioid problem, the situation is no better than it was 100 year ago. Indeed, many would say the situation is far worse.    According to the Centers for Disease Control, in just the past 3 years alone, the number of heroin overdose deaths in the United States has tripled. Tripled. And in some parts of the country, such as the Midwest, heroin overdose death rates have increased over 900 percent. Every day 120 people die from a drug overdose. The vast majority of these overdose deaths are due to prescription opioid medications. That is more than 43,000 deaths last year, or the tragic equivalent of one jetliner going down every single day.    In 2009, an estimated 13,000 babies were born in the United States addicted to heroin or prescription opioids. That is about one opioid-addicted baby every hour of the day, every day of the week. Please note that this statistic is from 2009, several years before the CDC announced our country was in the midst of an overdose epidemic and before the current explosion of heroin overdose deaths. The number of babies born addicted to opioids is much worse today. I used to work in a newborn intensive care unit, and I have watched too many tiny infants go through withdrawal symptoms. But seeing only one is enough to break your heart.    Something is desperately wrong with our Nation's response to the opioid epidemic, and it is quite literally a matter of life and death that we get honest answers and not remain misguided in our approach to how we solve this crisis.    Every Member of Congress is seeing the consequence of the federal government's failure because it touches every community and every family across America. My own district in Pennsylvania has seen the terrible consequences of addiction and death from opiate overdoses, and the problem has only gotten worse over the past year. In Westmoreland County, Pennsylvania, the drug overdose death total for 2014 surpassed that of 2013--a record to that point--by an additional death, and during that time, the number of accidental deaths caused by heroin in the county increased by over 30 percent. In 2014, Allegheny County, where Pittsburgh is, had 281 fatal overdoses reported, compared to 278 the previous year, and it is climbing for this year.    No federal agency has a more central role in this ongoing epidemic than the Department of Health and Human Services. HHS and its Substance Abuse and Mental Health Services Administration, otherwise known as SAMHSA, are tasked with leading our Nation's public health response to opioid and heroin abuse and addiction. SAMHSA regulates our country's 1,300 opioid maintenance--formerly known as methadone clinics--and is responsible for certifying the 26,000 physicians who prescribe the semi-synthetic opioid buprenorphine. According to testimony provided by SAMHSA before this subcommittee in April of last year, nearly 1.5 million people were ``treated''--and I put ``treated'' in quotes--with these opioids in 2012. That is a five-fold increase in the last 10 years. Now, I might add, I will not call this treatment. It is addiction maintenance.    Buprenorphine can more safely maintain a person's dependence by reducing the need for illegal opioid abuse, such as heroin, and thereby the risk for overdose. But make no mistake, buprenorphine is a highly potent opioid, which according to SAMHSA, is 20 to 50 times more potent than morphine. So it is worth considering that our national strategy to combat substance abuse is to maintain addiction by either prescribing or administering a heroin-replacement opioid. When you consider research from the National Institute on Drug Abuse documenting that almost everyone who stops taking buprenorphine relapses to illicit opioid use within a matter of weeks, it is deeply concerning thatwe don't have the best solutions for addiction recovery. According to the Drug Enforcement Administration, when police conduct a prescription drug bust, the third most frequently seized drug by law enforcement is buprenorphine--more than methadone, more than morphine, more than codeine. And unlike clinics that administer methadone, there are no requirements for buprenorphine clinics to offer or even discuss non-addictive treatment alternatives with patients, no requirements to develop treatment plans, no requirements to protect the public against it being diverted for illicit use. Meanwhile, the CDC reports that buprenorphine is the most frequently cited prescription drug in poisonings of children, accounting for nearly 30 percent of all opioid-related emergency department visits and 60 percent of emergent hospitalizations among children.    Worse yet, of opioid-addicted babies who start their fragile lives being medically detoxified off of opioids, nearly half of their mothers are on buprenorphine or methadone maintenance in HHS/SAMHSA-regulated or -certified practices.    This is government-supported addiction. It is not moving people to sobriety. We should not just focus on the extraordinary costs of detoxifying babies off of buprenorphine, but also the profound consequences for these babies whose entire experience in the womb and after they are born is dominated by buprenorphine dependence. Further, there are significant concerns about short- and long-term neurodevelopmental impacts of opioid exposure in utero. Why is the government subsidizing this harm?    Despite these problems, HHS and SAMHSA continue to actively and aggressively promote the use of buprenorphine, yet noticeably silent on promoting research and innovative measures with the goal of ending opioid addiction, not simply continuing addiction through drug maintenance programs of methadone. It concerns me that HHS and SAMHSA have no practical guidance on how to get people off of this prescribed opioid when those on buprenorphine maintenance for substance abuse disorders use illicit opioids an average of four times a week.    Now, I recognize this morning that HHS announced new plans and funding to work on this issue, and this committee eagerly awaits to see the details on how that will play out.    Compounding this crisis is the lack of evidence-based treatment to end opioid addiction, not merely replace an illicit drug with a government-sanctioned one. Evidence-based treatment includes decisions based on scientific studies with quantitative data, and is distinguished from those relying on anecdotes and subjective observations.    Only about 10 percent of persons with a substance abuse disorder will get any form of medical care. Of those who are lucky enough to get care, only 10 percent of them will get evidence-based treatment for the disease of addiction. Yet most medical professionals are not sufficiently trained to diagnose or treat the disease of addiction, and most providing addiction care are not medical professionals and are not equipped to provide the full range of effective treatments.    Now, I believe in recovery. I believe in lives being restored and every individual living up to their full God-given potential and doing so drug-free. I desperately want our federal efforts to work in every community and for every family that seeks care for addiction disorders. And I know that working together, at the federal, State, and local level, we will achieve success. But we have to set our eyes on the goal of full recovery, not just addiction maintenance. We can do this, I have no doubt.    We continue our oversight series today by listening to law enforcement and public health officials who are working at the on the front lines to protect our communities and our families in this national epidemic. We are grateful for your service and for taking the time to be with us today.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400101</t>
   </si>
   <si>
+    <t>DeGette</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you very much, Mr. Chairman, for convening this hearing today.    As you noted, the opioid epidemic is nothing short of a public health crisis. In 2013, prescription painkillers were involved in over 16,000 overdose deaths, and heroin was involved in an additional 8,257 deaths. Over 2.1 million Americans live with a prescription opioid addiction while 467,000 Americans are addicted to heroin. These are devastating numbers, and they have been trending upwards for far too long.    These numbers only paint a partial picture of the heavy toll of the epidemic in our society. Throughout this country, countless families and communities have been shattered by opioid abuse, misuse and addiction. It is time that we really truly pursue best practices supported by scientific research that will reverse this problem.    Recent advances in science have shown us that addiction is a disease of the brain. This demands that we approach the problem not only as a public safety issue but also as a public health issue. Yes, we must stop drug smugglers and crack down on pill mills, but we also must work with prescribers to educate them and prevent the over-prescription of opioids for pain management. And most importantly, we must improve our ability to identify and treat people with substance abuse disorders.    In 2013, for example, only 1 in 10 Americans with a substance abuse disorder received any form of treatment. That is just unacceptable, and we should be asking why so few Americans are accessing the treatment they need.    Research indicates that medication-assisted treatment, or MAT, combined with counseling is the most effective way to treat opioid addiction. Studies further demonstrate that MAT reduces the risk of drug overdoses, infectious disease transmission, and engagement in criminal activities.    Despite this track record, in 2013, MATs were available in only 9 percent of substance abuse treatment facilities nationwide. Even more troubling are reports that some treatment facilities that adopt an abstinence-based approach to drug treatment do not allow patients to take MATs while enrolled in their programs. According to experts, a high percentage of opioid addicts in abstinence-based treatment return to opioid abuse within 1 year, and as you said, Mr. Chairman, even within a few weeks. Given the limited success of these programs in promoting long-term recovery in opioid addicts, we must ask some hard questions regarding how we should be spending our limited resources for treatment.    Finally, we know that patients with substance abuse disorders continue to face significant barriers to treatment. For example, right now there is a nationwide shortage of qualified substance abuse providers, particularly people who can prescribe MATs. Recent press reports also suggest that patients face long waiting lists for admission into treatment facilities, and according to the American Society of Addiction Medicine, both State Medicaid programs and private insurers have policies in place that are limiting patients' access to MATs. We need to better understand these barriers and what we can do at the federal level to address them.    There are some reasons for optimism, however. First, the Affordable Care Act has expanded access to substance abuse treatment for millions of Americans. Insurance companies are now required to provide coverage of treatment for substance abuse disorders just as they would for any chronic disease. These policies represent the largest extension of treatment access in a generation, and hopefully they will guide millions into successful recovery.    Second, we do have some sense of what works. Some of our witnesses today who have firsthand knowledge on what strategies are effective to treat and prevent substance abuse will talk about that. They know what has worked in their communities, and we need to have them help us inform the national discussion.    I do want to thank our witnesses today, Mr. Chairman. We have asked all of you to attend this hearing because of the important work that you are doing to raise drug awareness, break down the stigmas long associated with substance abuse disorders, and put people on the path to recovery.    Finally, Mr. Chairman, your continued oversight on this issue gives me reason to be optimistic that this committee can play a role in turning the tide. You have indicated your intention to conduct a series of hearings on this topic, and I am certainly glad to be your partner in this inquiry.    To that end, I suggest that our next hearing focus on state responses to the epidemic. There is significant variation from state to state on treatment quality, access and coverage. Some states are making progress but some are not, and we should hear the best practices. We also need to hear from federal agencies on these same topics.    This committee has an opportunity to make a meaningful difference in addressing the problem, and I am welcoming all of our joint efforts.    And with that, Mr. Chairman, I just want to let the witnesses know, this committee has a bill on the floor right now, so I have to run down and make a statement on the floor. I am leaving us in the capable hands of Mr. Kennedy, and I will be back after my statement. Thank you.</t>
   </si>
   <si>
@@ -70,12 +85,24 @@
     <t>400414</t>
   </si>
   <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Upton. Well, thank you, Mr. Chairman.    Today we continue our important review of the growing epidemic of prescription drug and heroin abuse. The state and local perspective of this growing threat is essential as we evaluate what steps we can take at the federal level to help address the crisis.    Sadly, communities all across the country have been affected by prescription drug and heroin abuse, including my district in southwest Michigan. Devastatingly, heroin overdoses sadly are on the rise due to a combination of high demand and purity that can make the drug even more lethal. There were 13 suspected overdoses in Kalamazoo in the first quarter of 2013, compared to nine in the quarter before that in the earlier year. This unwelcome trend is unfortunately all too familiar as opiate-related overdoses have recently become the number one cause of death in Michigan and nationwide, surpassing motor vehicle crashes, suicide, firearms, and homicide.    I know personally a number of families that have been shattered by that overdose. The reality of heroin overdoses has hit hard in Kalamazoo County the last few years. In 2008, we lost a beautiful little girl named Amy Bousfield, 18 years old. In 2012, Marissa King died at 21. She began using heroin in 2009, despite having lost two friends to the drug. Marissa had an underlying mental illness. She was diagnosed with bipolar disorder, had struggled with depression, and had abused prescription drugs before turning to heroin after graduating from a local high school. These are just a few of the heartbreaking stories that we see all across the country. We are losing about 20,000 people a year from abuse of prescription pain killers or heroin.    As we continue to mourn the loss of all these lives, testimony from you all today will provide us an effective approach making a real difference in fighting this awful abuse. This is a great opportunity for this committee, on a bipartisan basis, to help improve the federal government's response to this epidemic. I am especially pleased to welcome one of today's witnesses, my good friend Vic Fitz, the Cass County Prosecutor and the President of the Prosecuting Attorneys Association of Michigan. He has 31 years of experience in prosecuting drug cases, and will certainly share his insights today as he has done with me over the past number of years and with other fellow prosecutors in Michigan on this issue. I would note that the heroin dealer who sold the heroin that killed Amy Bousfield was caught, convicted, and sentenced to 10 \\1/2\\ to 40 years in prison. We appreciate the work of Vic and his fellow prosecutors who have held dealers accountable to the law, and helped addicts straighten out their lives. I thank him and all of you for your service, and for participating at today's hearing, and I yield the balance of my time to Mr. McKinley.</t>
   </si>
   <si>
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman, and thank you, Mr. Murphy, for holding this hearing today focusing on this growing epidemic. Thank you to the witnesses for coming here to testify.    Prescription drug and heroin abuse has steadily increased. You have heard it throughout the comments that have been made here and throughout our country, and I have seen it firsthand in my home State of West Virginia. Currently, West Virginia is suffering from the highest rate of drug overdose mortality rates in the entire country.    Since coming to Congress in 2010, our office has been working on solutions. We have had roundtable meetings throughout the district with law enforcement, healthcare professionals, educators, and community leaders about how to address this problem. What we have heard is at least three solutions. One is, we need to be focused better on education; secondly, on proactive prevention; and thirdly, resources for our law enforcement to take these drug traffickers off our streets. Therefore, by expanding the High Incident Drug Traffic Area--HIDTA--in West Virginia, it has provided an incredibly effective tool for catching drug offenders and taking them off the streets. This is just one option. I hope to learn more from the rest of this panel today.    Thank you, and I yield back my time.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>412543</t>
   </si>
   <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you, Mr. Chairman. Thank you very much to all the witnesses that are here today who have dedicated so much of their time, efforts, energy, and lives to confronting this crisis, either through treatment, community health or through law enforcement. We are grateful for your commitment and all you do to try to address this problem head-on, and I want to thank the chairman of the committee and of the subcommittee as well for calling an important hearing.    There are few people in this country that have been spared the heartbreaking impact of watching a loved one, a neighbor, a friend, a colleague fall victim to opiate addiction. It is an epidemic striking red states and blue states, small towns and big cities, neighborhoods rich and poor. The breadth and depth of this epidemic is truly staggering, and there is no silver bullet. But perhaps there is a silver lining, which you have heard already this morning. It translates into strong bipartisan consensus here in Washington that we have to do something about it.    Back home in the 4th District of Massachusetts, there is not an event that I go to where this topic does not come up. Communities like Fall River in Taunton have been particularly hard-hit. Local leaders are working tirelessly to respond.    Across the Commonwealth, we confront a growing epidemic. In 2013, there were 978 opioid-related deaths in Massachusetts, according to the Department of Public Health, which has yet to release 2014 figures. In fiscal year 2014, there were more than 104,000 admissions to State-contracted substance abuse treatment programs in Massachusetts, more than 53 percent of which were for heroin addiction.    Despite these numbers, I repeatedly hear from providers in my district that there is a profound lack of resources for the prevention and treatment of substance abuse, especially when it comes to opioid addiction. Insufficient wraparound services, low reimbursement rates, and bureaucratic barriers to treatment harm patients and undermine our efforts to reverse addiction trends.    According to CPAC, the New England Comparative Effectiveness Public Advisory Council, 133,000 people in New England abuse or are addicted to opiates. Of those, 70 percent meet the criteria for treatment but cannot access it. We know that this is a problem with no silver bullet solution. We are working to chip away at it, and I am proud to have joined Representative Whitfield this morning in reintroducing legislation to reauthorize the NASPER program, the National All Schedules Prescription Electronic Reporting program. The program is designed to provide grants to states for the establishment, implementation, and improvement of prescription drug monitoring programs. We know that timely access to patient records and high standards of interoperability are successful with PDMPs, and this legislation will give providers the tools that they need to identify and treat at-risk behavior.    To those of you who are here today to testify, you are on the frontlines of this epidemic. You are fighting every single day for our communities, our neighborhoods and our backyards. This gives you unparalleled insight into what works and to what doesn't. We are here today to learn from you, to take the lessons that you have learned from your cities and towns, and try to transport them across the entire country.    Let me just say I first became aware of the scope of this addiction and the scope of this problem as a prosecutor in local communities in Massachusetts, finding young men and women that were breaking into 15 cars in a night, five, six homes over the course of the weekend, undercover agents that were putting themselves at great risk to try to keep our communities safe. So for those of you in law enforcement that are here, I look forward to hearing your ideas. From those folks back home that I have talked to, they have profound recognition that we will not arrest our way out of this problem, but very much look forward to hearing your solutions as to what we can do going forward, and I yield back my time.</t>
   </si>
   <si>
@@ -97,6 +130,12 @@
     <t>412550</t>
   </si>
   <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman.    I am pleased today to introduce Fred Wells Brason, a former hospice chaplain, now President and CEO of Project Lazarus from my home State of North Carolina. Mr. Brason has had tremendous success in saving lives from opioid overdoses, and I look forward to hearing his testimony and learning from his great work.</t>
   </si>
   <si>
@@ -106,6 +145,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Brason</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brason. Brason.</t>
   </si>
   <si>
@@ -121,12 +163,21 @@
     <t>412485</t>
   </si>
   <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman.    I am glad to introduce Dr. Sarah Melton. Dr. Melton chairs OneCare of Southwest Virginia, a consortium of substance abuse coalitions attempting to turn the tide against substance abuse. She is an Associate Professor of Pharmacy at ETSU and most recently was appointed by Governor Terry McAuliffe to the Virginia Task Force on Prescription Drug and Heroin Abuse, an idea first proposed to the Governor by myself and others in the Virginia Congressional Delegation.    Dr. Melton has a long history of working to address the substance abuse problems in southwest Virginia. She was instrumental in bringing Project Lazarus to Virginia, and she is also working on the naloxone issues in southwest Virginia and in Virginia. I want to thank you, Dr. Melton, for being here today and sharing your experience with our committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Dr. Melton, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Melton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Melton. Thank you, Mr. Chairman, and thank you, Congressman Griffith and the other members of the subcommittee.    During my testimony, I am going to address key areas related to state and local initiatives that are making an impact, and I will also address key areas where I feel the federal government can assist in these areas.    The first key area I will address is education of prescribers. As you are all aware, students and residents in healthcare professions have limited exposure to curricula in identifying and treating substance use disorders and appropriate prescribing and dispensing of controlled substances for chronic pain, but in Virginia, we are working together to bring leaders from all healthcare schools together to assure that our prescribers and dispensers of controlled substances have received an adequate education on addiction and the treatment of chronic pain.    Overall, more funding is needed form the federal level to provide expanded graduate medical education opportunities for training in the identification, referral, and treatment of substance use disorders. As changes in federal funding allocated for graduate medical education are currently being discussed, it is an opportune time to assess how funding can best address training in addiction medicine.    Tennessee has a mandated annual continuing education requirement for prescribers. Virginia, however, does not have that. OneCare of Southwest Virginia has joined with the Medical Society of Virginia and the Virginia Department of Health to provide no-cost continuing medical education to all healthcare prescribers as well as dispensers. We have been able to educate over 2,000 prescribers and dispensers in the past 3 years. We are currently evaluating how that continuing education has changed prescribing habits, attitudes, and registration to the prescription drug monitoring program as well as other outcomes.    I wanted you to know that in January, a letter was sent directly from Secretary of Health and Human Services, Dr. Bill Hazel, to all prescribers in Virginia. The letter specifically addressed new legislation that requires prescribers to be monitored, to be registered in the prescription drug monitoring program, but it also talked about how to use the PMP programs in clinical practice. I am happy to report as a result of that letter, the prescription drug monitoring program registrations dramatically increased, and we are seeing a steady increase in inquiries to the PMP in the clinical setting. We are going to be sending a letter to all pharmacists in the Commonwealth in the next month.    With regard to access to naloxone, both Virginia and Tennessee have recently passed legislation that will provide wide access to this lifesaving medication, and OneCare has worked extensively with the Virginia Department of Behavioral Health and Developmental Services to train people across the Commonwealth through Project Revive. Last summer, Senator Tim Kaine attended one of those trainings in Lebanon, Virginia, and as a result of his training, he has introduced legislation through the Opioid Overdose Reduction Act to offer Good Samaritan protection for first responders. It is my hope that Congress will pass this legislation so that we have a consistent Good Samaritan protection across the Nation.    One barrier we are finding with naloxone, though, is the cost. It is not mandated by insurance companies to cover this medication, and it really should be.    With regard to treatment, medication-assisted treatments with methadone, buprenorphine, and naltrexone have become an essential component of a comprehensive treatment plan for opioid use disorders. The issue that we have now is that we need a modernization of federal law to further expand access to these lifesaving medications but we need specific best practice requirements and recommendations for prescribers and insurers such as Medicaid and Medicare to make sure that certain patients are receiving comprehensive care by competently trained healthcare providers. Also critical is reimbursement for parts of these programs such as urine drug screens and the necessary psychotherapy that accompanies the medication treatment.    With regard to monitoring with the prescription drug monitoring program, both Virginia and Tennessee are members of the National Association of Boards of Pharmacy Interconnect program, and I am very happy to find that the bill that will find NASPER is being proposed because the funding for that allocation will help all States be able to participate in a national prescription drug monitoring program. There is one concern I have, though. You may or may not know, a concern that we encounter daily in clinical practice is that methadone clinics are not required to report methadone dispensing to the prescription drug monitoring programs. This is a very serious situation because if these patients do not disclose this to their primary care providers and they don't know it when they access the prescription drug monitoring program, we often see other opioids being prescribed, benzodiazepines that can lead to death. So that is an issue of concern. And in contrast, buprenorphine, of course, is reported to the State prescription drug monitoring programs that allow us more monitoring for safety and appropriate use.    Thank you for the opportunity to testify and for your ongoing commitment to this epidemic across the United States.</t>
   </si>
   <si>
@@ -139,6 +190,9 @@
     <t xml:space="preserve">    Mr. Murphy. Doctor, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Maxwell. Thank you Congressman McKinley and thank you, Mr. Chairman for the opportunity. It is pretty humbling to be asked to speak with such an august group, but hopefully this testimony will help us in your quest to quell this rising tide that is a scourge in our Nation.    I have had the opportunity to take care of these babies that are suffering from neonatal abstinence syndrome, and so at the time back in 2006 when the West Virginia Perinatal Partnership was established, their mission was to look at areas that we could improve the health of mothers and babies in West Virginia, and at the time when all of the providers got together in a room, we decided that substance abuse in pregnancy or substance usage in pregnancy was an issue that we had to address, mainly because at the time, these babies that had neonatal abstinence syndrome were taking up most of the beds in the ICU, and level III institutions could not accept sick, small, premature babies from outlying institutions. Some of them had to be transported out of the State.    So at the time, we really were not understanding the whole impact of what was happening in the State. So I missed a meeting and became chairman of the substance abuse committee, I have to say, and I was given that responsibility, and over the ensuing 3 years or so, we tried to figure out what was the prevalence of this problem in our State, and so we embarked upon the umbilical cord tissue study, which looked at eight hospitals through the State, scattered throughout the State. We collected as many umbilical cord tissue samples as we could as sort of a pilot over a month-long period. We ended up collecting almost 800 samples, and then we realized that one in five of those samples was positive for a substance, many of them being polydrug abusers, which included opiates, marijuana, and so forth.    So this was obviously a daunting problem, and so at the Perinatal Partnership we decided to try to be proactive rather than reactive, and by that, I mean we wanted to see if we could reduce the numbers of babies with neonatal abstinence or at least reduce the severity of the neonatal abstinence syndrome at the end of the pregnancy. So we embarked upon a project that we called the Drug-Free Mothers and Babies Project whereby we sent out requests for proposals, got four or five in, and now have established four or five programs that are in the process. The aspects of this project are, one, we screen all women at the first antenatal visit, whether we do it using biological specimens like urine or we do it with screening tools such as what we call SBIRT screening, brief intervention, referral, and treatment. And then once we have identified a woman, a pregnant woman, who is using an opiate specifically, we then refer them to an addiction counselor and behavioral medicine, and try to follow them throughout that pregnancy with a goal to reducing or first of all converting the substance they are using to another drug that we can probably wean throughout the pregnancy with a goal to reducing the amount of drug that the baby is exposed to during the pregnancy and ultimately get them either off the drug or on a very small dose so that the severity of neonatal abstinence would be that much reduced.    Well, one of those programs has been operating now for about 2 years, and we have had great success with one of those programs, reducing their incidence of 19 percent of positive umbilical cord tissue samples at birth to 8 percent, which means that the cost associated with neonatal abstinence has been significantly reduced. We have also been following these ladies who have been in the program for up to a year. We don't have 2 years' worth of follow-up yet, but the goal is to follow them at home for the first 2 years after delivery and reinforce that behavioral modification that went on throughout the pregnancy.    The ultimate goal if this is a successful program is to develop what we call a pay-for-success program, whereby we can now try to save the government money in the long run by having an investor fund these programs, have an independent entity such as the Partnership administer the program with an independent audit, and at the end hopefully show that we have reduced the cost and ultimately improved the lives of these people that are ravaged by this terrible disease.    Thank you for the opportunity, Mr. Chairman.</t>
   </si>
   <si>
@@ -148,12 +202,21 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    Rachelle Gardner is here today representing the Hope Academy in Indianapolis, Indiana, in my district. Rachelle is the Chief Operating Officer and one of the founders of Hope Academy, a tuition-free Indiana public charter high school for students in recovery from drug and alcohol addiction.    As 80 percent of students relapse from recovery upon returning to their own high school, Hope Academy is essential in combating the staggering statistic. Hope Academy is the only recovery high school in Indiana and one of only 35 within the United States. Rachelle also serves as the Director of Adolescent Services at Fairbanks Drug and Alcohol Treatment Center, and she is the Board Chair for the Association of Recovery Hospitals. And so I want to welcome Ms. Gardner and the other panelists today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    You are recognized for 5 minutes. Thank you.</t>
   </si>
   <si>
+    <t>Gardner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gardner. Thank you, Mr. Chairman and Congresswoman Brooks and members of the committee for allowing me to speak to you today. My name is Rachelle Gardner, and I have the privilege of serving as the Director of Adolescent Services for Fairbanks, an addiction treatment provider, and the Chief Operating Officer of Hope Academy, a recovery high school, both located in Indianapolis, Indiana.    Hope Academy is the only recovery high school in Indiana and one of 35 recovery schools in the United States. For the last 4 years, I have served as the Chair of Board of Directors for the Association of Recovery Schools, also known as ARS, and the purpose of ARS is to support and inspire recovery schools around the country. My entire career has been dedicated to working with youth who are struggling with substance abuse.    The abuse of opiates continues to rise in central Indiana. According to the Indiana University Center for Health Policy, the number of adolescents receiving treatment for opiate dependence has risen 9 percent over the last 5 years. One of the most staggering statistics is that since 1999, the number of opiate-related deaths has quadrupled in Indiana. Over the last 18 months, Fairbanks has admitted 360 young people ages 15 to 23 who indicated opiates as their primary drug of choice.    Heroin holds a firm grip on its victims and the withdrawal experience from this drug is extremely painful and challenging to overcome. Another danger of heroin is the significant potential for a fatal overdose. According to the Indiana State Department of Health, in 2011 there were 63 heroin-related deaths in Indiana and in 2013 that number increased to 152.    All of the programs and services at Fairbanks for adults and adolescents are driven by our mission to focus on recovery. Recovery from alcohol and drug addiction is challenging for anyone, but especially for our young people who have yet to develop the coping skills necessary to work a successful recovery program.    In the United States, 80 percent of students relapse from recovery upon returning to their high school following primary treatment for substance abuse. Fairbanks was seeing this same trend and in response, opened Hope Academy in 2006. Hope Academy is a public charter school sponsored by the Mayor of Indianapolis. We serve students in grades 9 through 12 who are seeking a safe, sober, and supportive environment. We are committed to small class sizes with highly qualified teachers who are well trained to educate and support students in recovery from drug and alcohol addiction. Most of our students struggle with co-occurring behavioral and mental health issues as well, yet because of the expertise of our staff, we are able to address these issues.    The key to a successful recovery program is changing the people, places, and things in your life. Sending a child back to their former school puts them in the environment that may have led to their drug and alcohol use. Hope Academy provides these students with an environment that contributes to academic success, personal growth, and life-long recovery. Our students' success is measured in growth. We define growth in many ways: the number of days they remain abstinent from drugs and alcohol, their ability to obtain credits and graduate, repairing relationships with families and friends, and developing much-needed life skills.    Over the last 9 years we have served more than 500 students at Hope Academy. Some of these students felt strong enough in their recovery to successfully transition back to their home schools and graduate. Yet over 100 students chose to stay and are now alumni of Hope Academy. Many have pursued postsecondary education or advanced vocational training with the goal of joining the workforce and contributing positively to their communities.    Academic achievement and recovery success are our primary goals at Hope Academy. We have partnered with Indiana Wesleyan University's Addictions Counseling Program to produce a Web site for the purpose of sharing research outcomes with other recovery schools around the country. One recent study produced data that strongly suggests students attending Hope Academy were overall persistent in their education, which in turn reduced their behavioral and mental health issues while increasing the strength of their recoveries.    Through my work with the Association of Recovery Schools, I have become quite familiar with the national advocacy efforts surrounding the Comprehensive Addiction and Recovery Act of 2015, or CARA. Last year, Senator Whitehouse of Rhode Island and Senator Portman of Ohio submitted this critical piece of federal legislation. If passed, this would authorize increased funding for treatment, recovery, and criminal justice systems while aiming to reduce opioid misuse and overdose deaths. In section 303 of CARA, the National Youth Recovery Initiative is of special importance to the various organizations I represent because of the attention it pays to adolescent treatment and recovery resources. Each of you can help us get the resources needed to make a lasting impact on the opiate crisis at a national level by first empowering our local communities. This passage of legislation is critical to helping our youth, our families and our communities who are fighting this epidemic on a daily basis.    The disease of addiction has permeated our society for hundreds of years. In my 25 years of experience, I have never, ever seen a class of drugs take hold of young people like I have with opiates. They are highly addictive and too often lead to premature death, which unfortunately I have seen way too many times. Opiates are claiming the lives of our country's future leaders.    My hope in testifying today is that together we can not only provide young people the access to treatment and recovery supports they need but also to restore their hope for a positive future.    Thank you for the opportunity to be here today and I look forward to answering any of your questions.</t>
   </si>
   <si>
@@ -163,6 +226,12 @@
     <t>400646</t>
   </si>
   <si>
+    <t>Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fitz. Chairman Murphy and esteemed members of the Oversight and Investigations Subcommittee, as indicated, my name is Victor Fitz and I am the prosecutor in Cass County, Michigan. Cass County is a medium-sized county in lower Michigan abutting South Bend on the Indiana border. We are equidistant from Chicago and Detroit, 2 hours to the west of Chicago, 2 hours to the east is Detroit. I want to thank you for the opportunity to be here today both on behalf of the Cass County Prosecutor's Office as well as the Prosecuting Attorneys Association of Michigan, particularly to address this very serious and horrifying epidemic that we are facing in Michigan as well as the Nation as a whole.    Michigan, like the rest of our States, is extremely diverse from county to county, but we are all similar in one way, Michigan from our Upper Peninsula to the shores of Lake Superior right down to our urban areas of Detroit, Saginaw, Muskegon, Flint and the like, and that is that we are dealing with the devastating problem of prescription drug abuse and heroin abuse. It is devastating all of our communities. It is not just an inner city problem. It is not just a rural problem. It is there and everywhere in between.    All people are vulnerable to abusing these drugs because they are so very addictive. This abuse can start innocently, for instance, a teenager who becomes addicted to OxyContin after a serious athletic injury or someone perhaps recreationally who starts using less addictive drugs and graduates their drug use to heroin. It takes only one time to become addicted to heroin, and that one time is ruining futures, it is ruining families, and it is ruining lives.    The opiates found in prescription pills are the addictive ingredient in heroin, and that is why users of prescription drugs eventually seem to turn to heroin. It is also simple economics. As we have found in Michigan as well as other parts of the Nation, it is actually cheaper to use heroin than prescription drugs on many occasions. We found in Michigan that heroin is actually cheaper in many areas than even marijuana. It can be smoked, it can be snorted, and it can be injected. It is quick and it is easy.    Statistics in the State of Michigan indicate that in the year 2001, there were 271 heroin overdose deaths in our State--I am sorry. That would have been the year 2001 and 2002, a 2-year period. Fast-forward to 2011. That number quadrupled. For one year, the year 2011 had 728 heroin deaths.    I know the congressional representative from Colorado spoke earlier about the 8,000 heroin deaths in the United States, and allow me just for a moment to personalize that from a prosecutor's perspective, from a law enforcement perspective. We had about 2 years ago in Cass County and Bering County in southwest Michigan, our two counties, we had a heroin death that occurred, or suspected heroin death. In Michigan we now have a law that indicates that if you deliver heroin or any drug and that causes the death of that person, it is the equivalent of a second-degree murder charge. Unfortunately, because of the newness of this statute, law enforcement not having protocols, did not seize upon the opportunity to investigate in that fashion initially. So as the investigation did take forward once my office became aware of it by the exhumation of the body, which I can tell you was something that was quite traumatic to the victims of the teen who had been killed from suspected drug activity. While that investigation was going on, in an effort to show that the death came from the use of heroin and other drugs that were supplied, this individual was still out on bond and he again delivered to another person, who also died from a heroin overdose. I can tell you that the pain and the agony is palpable for the victims and for those families.    On Monday of this week, I was talking to another family of a homicide situation, didn't happen to be drugs, but I can tell you when it is a violent death, when it is a death from a drug overdose, the pain never leaves the family. Again, these are real. The number 8,000, as mentioned earlier, every one of those is a tragedy for the family and for the community and for the friends.    We are also seeing pre-teenagers abusing prescription drugs and heroin. It is a terrifying tragedy. Anything that we can do to battle this epidemic needs to be done. The Michigan Department of Community Mental Health in my State has developed a work group to design a strategic plan to combat this type of drug abuse. The plan, which is in place through the year 2015 through September 30, 2015, generally recommends the following: increasing multisystem collaboration across agencies, broadening statewide media messages, increasing training for physicians regarding drug abuse for education in schools, and increased access to databases regarding controlled substances for health professionals and law enforcement. In my written testimony, I provide some other potential options in that regard. Anything we can do to combine strategies and improve operations to get our citizens help and to put an end to what is deteriorating lives should be done.    If I could have just one moment, I want to mention very briefly our prosecutor from Wayne County in the Detroit area. Kim Worthy asked me this morning to just pass on a couple things very quickly that again this is not just a rural issue, it is also an urban issue, and they have excessive pill mills, violent crime, robbing of pharmaceutical vehicles going through their neighborhoods, murders occurring from these situations, and she again emphasizes we need to attack it on both the supply and the demand end.    Thank you very much.</t>
   </si>
   <si>
@@ -172,18 +241,30 @@
     <t>412568</t>
   </si>
   <si>
+    <t>Mullin</t>
+  </si>
+  <si>
+    <t>Markwayne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    It is a very great privilege I have to introduce not just Corporal Mike Griffin but a friend of mine. Mike and I used to meet just about every Friday morning to have breakfast, and in his words, he says just to help me stay grounded.    Mike has worked with the Tulsa Police Department for 17 years and spent 12 of those years in an undercover capacity conducting drug investigations. For the past 10 years, he's been a supervisor within the department's narcotics unit. Previously, Corporal Griffin was with a special agent with the Bureau of Alcohol, Tobacco, and Firearms. He has also served as a member of the Oklahoma Army National Guard. Mike, thank you for being here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Griffin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffin. Chairman Murphy, Ranking Member DeGette, and members of the committee, on behalf of Chief Chuck Jordan and the Tulsa Police Department, thank you for the opportunity to discuss prescription opioid abuse, heroin abuse, and heroin trafficking.    Although heroin abuse and trafficking in Tulsa lags far behind the abuse and tracking of methamphetamine, heroin is trafficked into Tulsa in the same manner as methamphetamine and cocaine, and its abuse leads to similar related criminal activity ranging from petty larceny to armed robbery and even murder.    Narcotics investigators within the Tulsa Police Department know that a large majority of individuals currently addicted to heroin began their drug abuse by abusing prescription drugs. The Tulsa Police Department currently has 751 sworn police officers. TPD believes the focus of drug investigations should be on those individuals who are responsible for trafficking drugs into and through our community rather than on those individuals who are merely addicted to drugs. This is because of our belief that resources are best utilized at the source of the problem rather than on the symptoms of a problem. With that goal in mind, of the 751 sworn officers working for TPD, one investigator is assigned to investigate prescription drug cases within the city. Our lone prescription drug investigator spent the last 20 years investigating prescription drug cases. He believes that Oklahoma has one of the best prescription monitoring programs in the United States. Oklahoma's PMP is real time and allows doctors and pharmacists to quickly access an individual's prescription drug history to evaluate if they are possibly doctor-shopping to gain access to prescription drugs.    If a person gets addicted to opioids, it is not long before they realize that obtaining prescription drugs are harder to access due to Oklahoma's PMP and more expensive than heroin. Because these individuals already are addicted to opioids, the transition to heroin is easier and cheaper.    Heroin trafficking in Tulsa is operated by Mexican drug trafficking organizations. Similar to other drug investigations conducted at the local or state level, the individuals most often arrested and prosecuted are the local dealers and operation leaders. However, the individual profiting most from the illegal distribution of heroin resides in Mexico and is usually beyond prosecution at the state level.    Additionally, and still consistent with other drug investigations, when the individuals at the local or state level are arrested, Mexican DTO simply replaces those individuals with other low-level people within the organization. Therefore, the drug-trafficking organization is able to continue distributing drugs within a community almost uninterrupted.    Data confirms that drug abuse not only provides a demand for drugs to be trafficked into and throughout the United States but also that drug abuse and distribution leads to other crimes occurring in a community. An approach targeting drug trafficking without taking into account a need to prevent drugs from even entering the United States is shortsighted. Prior efforts by law enforcement agencies and state legislators to prevent drug crimes and crimes that occur because of drug dependence and distribution have shown to be successful. For example, reducing the availability of pseudoephedrine has shown to reduce the number of meth labs operating in Oklahoma and other States with similar legislation. This legislation has not only reduced the number of meth labs operating within a state but is also shown to significantly lower associated criminal activity. According to the FBI, no other country in the world has a greater impact on the drug situation in the United States than does Mexico. The FBI states that each of the four major drugs of abuse are either produced in or transported through Mexico before reaching the United States.    Mexican drug-trafficking organizations use numerous methods to smuggle drugs into our country to include aircraft, horses and mules, tunnels, vehicles, and even people walking across the border. Data provided by the DEA shows that the supply of heroin coming from Mexico has increased over the past 5 years and that part of the increase in heroin seizures may be due to the decrease in U.S. demand for Mexican marijuana, which has led Mexican drug farmers to increasingly plant opium poppies in lieu of marijuana.    It is clear that prescription opioid abuse and the related heroin abuse are issues that affect communities across the United States. Without a comprehensive approach to these issues, many people across the county will continue to be affected by these drugs.    The Tulsa Police Department recommends a continuation of the comprehensive approach to drug trafficking currently in place, which relies on coordination among law enforcement agencies, community-oriented policing, intelligence and information sharing, and improved technology. The Tulsa Police Department also encourages additional federal efforts be made to prevent drugs of all kinds from crossing our international borders and finding their way into communities across the United States.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Corporal. I appreciate your testimony.    Last but not least is Dr. Banta-Green, Senior Research Scientist at the Alcohol and Drug Abuse Institute at the University of Washington in Seattle.    Doctor, you may now give a 5-minute summary of your written statement.</t>
   </si>
   <si>
+    <t>Banta-Green</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Banta-Green. Good morning, Chairman Murphy and members of the committee. I am honored to speak to you today about how we can improve the health of our communities as they struggle with how to manage stress, pain, and addiction in a society and a healthcare system that has historically valued and incentivized quick fixes over real health and wellness. We face big challenges but we do know what needs to be done.    I am a Senior Research scientist at the Alcohol and Drug Abuse Institute at the University of Washington, where I am also Affiliate Faculty in the School of Public Health and the Harborview Injury Prevention and Research Center. My current work includes leading a study of an intervention to prevent opioid overdoses among heroin and pharmaceutical opioid users that is funded by the National Institutes of Health. I have a project analyzing prescription monitoring program data and developing interventions with those data to improve health for those taking controlled substances. This is funded by the Bureau of Justice Assistance with an award to our State Department of Health; and I am currently running the Center for Opioid Safety Education which supports communities across Washington State so that they can respond to the overwhelming impacts of opioid abuse and overdose in their communities. That funding is from the SAMHSA block grant to our state substance abuse agency.    As a public health researcher, I think in terms of primary prevention--preventing a problem from starting; secondary prevention--intervening in a problem to prevent it from getting worse; and tertiary prevention--to prevent death and serious harm.    Given that our communities are in crisis, let us start with preventing death and serious harm. Overdoses can be prevented and most can be reversed before they become fatal if people know how to recognize an overdose and how to respond. Overdoses are a crisis of breathing. 911 needs to be called. An antidote, naloxone, needs to be administered, rescue breathing needs to be initiated and the overdose victim needs to be monitored. Naloxone is a proven, safe medication yet far too few people who need it even know about it, can get it easily or can afford it. Overdose education on naloxone can be provided in a doctor's office, by a pharmacist, at jails or via community-based health education programs such as syringe exchanges. Those at highest risk for overdose are heroin users. Syringe exchanges have the staffing expertise and trusting relationships with our loved ones who use heroin that are necessary to provide lifesaving services.    At the same time, far more people are using pharmaceutical opioids. About 3 percent of adults use opioids chronically for pain. They also need overdose education and take-home naloxone.    Fatal overdose prevention is a necessary first step, but it is a short-term emergency response. Given that opioid addiction leads to changes in the brain and that addiction is a chronic and relapsing condition, it needs to be treated as a chronic medical condition. We are fortunate to have medications to support opioid addiction recovery. Methadone and buprenorphine have been consistently shown in research to save lives and be cost efficient. However, access is still limited by regulatory, geographic, and financial barriers.    Switching to those using opioids for chronic pain, realistic expectations about pain relief need to be discussed, including the fact that long-term opioid use may not lead to good pain control and in fact may reduce functioning. Washington State has led the nation by implementing chronic pain management guidelines in 2007 which have subsequently been codified in State law. Key points of these guidelines include: a dosing threshold trigger for consultation with a pain specialist; patient evaluation elements; periodic review of a patient's course of treatment; encouraging prescriber education on the safe and effective uses of opioids; and the use of medication-assisted treatment if a person is not successfully tapered off of opioids and has an opioid use disorder.    So, how do we prevent opioid addiction in the first place? Given that the majority of young adult heroin users now report they were first hooked on pharmaceutical opioids, it is clear that addressing inappropriate initiation is essential. The decision to begin prescribing opioids for minor injuries and pain needs to be carefully considered as does the total quantity dispensed if they are prescribed. Opioids in the home need to be carefully monitored and immediately disposed of when no longer needed. Parents need to know how to talk with their kids about medication safety as well as how to manage stress and pain without medications, drugs, or alcohol.    To conclude, we can keep people alive, we can treat harms related to opioid use and we can prevent misuse, but, given the potential harms of improper care for those with opioid use problems, we need to take a strategic approach based upon the fact that pharmaceutical opioids can be used interchangeably with heroin and we need to work on prevention and intervention simultaneously.    Thank you very much.</t>
   </si>
   <si>
@@ -371,6 +452,12 @@
   </si>
   <si>
     <t>412319</t>
+  </si>
+  <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair, and welcome to the panelists. Thank you for bringing your intellect and your passion to the table. It is most helpful.    In October of last year, the Atlantic magazine published an article titled ``The New Heroin Epidemic,'' which looked at a number of challenges facing addicts in West Virginia. I would like to enter this article into the record, Mr. Chair.</t>
@@ -947,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,7 +1042,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,4229 +1064,4994 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
       <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
       <c r="H22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
       <c r="H26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
       <c r="H30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
       <c r="H32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
       <c r="H64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
       <c r="H66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
       <c r="H68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
       <c r="H70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
       <c r="H72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
       <c r="H74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
       <c r="H76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
       <c r="H78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
       <c r="H80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
       <c r="H82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
       <c r="H84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s">
+        <v>53</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
       <c r="H88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
       <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s">
+        <v>53</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s">
+        <v>43</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G100" t="s">
+        <v>146</v>
+      </c>
       <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G102" t="s">
+        <v>146</v>
+      </c>
       <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G104" t="s">
+        <v>146</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G105" t="s">
+        <v>82</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G106" t="s">
+        <v>146</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G108" t="s">
+        <v>146</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G110" t="s">
+        <v>49</v>
+      </c>
       <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G111" t="s">
+        <v>53</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G112" t="s">
+        <v>49</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
+        <v>53</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G114" t="s">
+        <v>49</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G115" t="s">
+        <v>53</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G116" t="s">
+        <v>49</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G117" t="s">
+        <v>53</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G118" t="s">
+        <v>49</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G119" t="s">
+        <v>53</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G120" t="s">
+        <v>49</v>
+      </c>
       <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G121" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G122" t="s">
+        <v>49</v>
+      </c>
       <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G123" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G124" t="s">
+        <v>49</v>
+      </c>
       <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>51</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G127" t="s">
+        <v>75</v>
+      </c>
       <c r="H127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G128" t="s">
+        <v>79</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>51</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G129" t="s">
+        <v>75</v>
+      </c>
       <c r="H129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G131" t="s">
+        <v>75</v>
+      </c>
       <c r="H131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G132" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>51</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G133" t="s">
+        <v>75</v>
+      </c>
       <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
       <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>51</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
       <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G136" t="s">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G137" t="s">
+        <v>70</v>
+      </c>
       <c r="H137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>51</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
+      </c>
       <c r="H138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
       <c r="H139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>51</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
       <c r="H140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G142" t="s">
+        <v>62</v>
+      </c>
       <c r="H142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G143" t="s">
+        <v>66</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G144" t="s">
+        <v>62</v>
+      </c>
       <c r="H144" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G145" t="s">
+        <v>66</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G146" t="s">
+        <v>62</v>
+      </c>
       <c r="H146" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G147" t="s">
+        <v>70</v>
+      </c>
       <c r="H147" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G148" t="s">
+        <v>62</v>
+      </c>
       <c r="H148" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
       <c r="H150" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G151" t="s">
+        <v>70</v>
+      </c>
       <c r="H151" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>18</v>
+      </c>
       <c r="H152" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G153" t="s">
+        <v>70</v>
+      </c>
       <c r="H153" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
       <c r="H154" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G155" t="s">
+        <v>70</v>
+      </c>
       <c r="H155" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s">
+        <v>18</v>
+      </c>
       <c r="H156" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>48</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G157" t="s">
+        <v>70</v>
+      </c>
       <c r="H157" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>18</v>
+      </c>
       <c r="H158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I158" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
       <c r="H159" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I159" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>18</v>
+      </c>
       <c r="H160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G161" t="s">
+        <v>82</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>18</v>
+      </c>
       <c r="H162" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I162" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G163" t="s">
+        <v>82</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>18</v>
+      </c>
       <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G165" t="s">
+        <v>82</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>18</v>
+      </c>
       <c r="H166" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I166" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
       <c r="H168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I168" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G170" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G172" t="s">
+        <v>82</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G174" t="s">
+        <v>66</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="G176" t="s">
+        <v>66</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>194</v>
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95837.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95837.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Murphy</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400101</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>DeGette</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400414</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Upton</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
     <t>412487</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>McKinley</t>
   </si>
   <si>
@@ -110,6 +125,9 @@
   </si>
   <si>
     <t>412543</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Kennedy</t>
@@ -1034,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,7 +1060,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,4991 +1085,5404 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" t="s">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>88</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>88</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" t="s">
-        <v>53</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s">
-        <v>43</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" t="s">
-        <v>53</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s">
-        <v>43</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>49</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I80" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81" t="s">
-        <v>82</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>88</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s">
-        <v>82</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85" t="s">
-        <v>82</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I86" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" t="s">
-        <v>53</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s">
-        <v>53</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>59</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s">
-        <v>53</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>59</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
-      </c>
-      <c r="G93" t="s">
-        <v>43</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H96" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
-      </c>
-      <c r="G97" t="s">
-        <v>58</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>64</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H98" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G100" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G102" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I102" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
-      </c>
-      <c r="G103" t="s">
-        <v>58</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G104" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
-      </c>
-      <c r="G105" t="s">
-        <v>82</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>88</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G106" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
-      </c>
-      <c r="G107" t="s">
-        <v>82</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>88</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="H108" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I108" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G110" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H110" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I110" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G111" t="s">
-        <v>53</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>59</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G112" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H112" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I112" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
-      </c>
-      <c r="G113" t="s">
-        <v>53</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>59</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G114" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H114" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I114" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
-      </c>
-      <c r="G115" t="s">
-        <v>53</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>59</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G116" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H116" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
-      </c>
-      <c r="G117" t="s">
-        <v>53</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>59</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H118" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
-      </c>
-      <c r="G119" t="s">
-        <v>53</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>59</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G120" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
-      </c>
-      <c r="G121" t="s">
-        <v>43</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>49</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G122" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H122" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I122" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
-      </c>
-      <c r="G123" t="s">
-        <v>58</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>64</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G124" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I124" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G127" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I127" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128" t="s">
-        <v>79</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>85</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G129" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I129" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>79</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>85</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G131" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H131" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I131" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
-      </c>
-      <c r="G132" t="s">
-        <v>79</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>85</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G133" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H133" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I133" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J133" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G134" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H134" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I134" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G135" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H135" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I135" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
-      </c>
-      <c r="G136" t="s">
-        <v>79</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G137" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H137" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I137" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G138" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H138" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I138" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G139" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H139" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I139" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J139" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G140" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H140" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I140" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G142" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H142" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I142" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
-      </c>
-      <c r="G143" t="s">
-        <v>66</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G144" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H144" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I144" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
-      </c>
-      <c r="G145" t="s">
-        <v>66</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>72</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G146" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H146" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I146" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G147" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H147" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I147" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G148" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H148" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I150" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G151" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H151" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I151" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J151" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I152" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G153" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H153" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I153" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J153" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I154" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J154" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G155" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H155" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I155" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J155" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I156" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J156" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G157" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H157" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I157" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J157" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H158" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I158" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J158" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G159" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H159" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I159" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J159" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G160" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H160" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I160" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J160" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
-      </c>
-      <c r="G161" t="s">
-        <v>82</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>88</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I162" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J162" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
-      </c>
-      <c r="G163" t="s">
-        <v>82</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>88</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G164" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H164" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I164" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J164" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
-      </c>
-      <c r="G165" t="s">
-        <v>82</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>88</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G166" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H166" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I166" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J166" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G168" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I168" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J168" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
-      </c>
-      <c r="G170" t="s">
-        <v>43</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>49</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
-      </c>
-      <c r="G172" t="s">
-        <v>82</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>88</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
-      </c>
-      <c r="G174" t="s">
-        <v>66</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I175" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
-      </c>
-      <c r="G176" t="s">
-        <v>66</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>223</v>
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
